--- a/config/controllers.xlsx
+++ b/config/controllers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\OneDrive\Desktop\situational-plan-server\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DFA086-CDA3-42D1-B8AF-EED22AEA43B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C60BFC0-1E70-4291-88FD-89253888342A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="252">
   <si>
     <t>Table1</t>
   </si>
@@ -771,22 +771,22 @@
     <t>I3</t>
   </si>
   <si>
-    <t>U1itime</t>
-  </si>
-  <si>
-    <t>U2itime</t>
-  </si>
-  <si>
-    <t>U3itime</t>
-  </si>
-  <si>
-    <t>I1itime</t>
-  </si>
-  <si>
-    <t>I2itiime</t>
-  </si>
-  <si>
-    <t>I3itime</t>
+    <t>U1z</t>
+  </si>
+  <si>
+    <t>U2z</t>
+  </si>
+  <si>
+    <t>U3z</t>
+  </si>
+  <si>
+    <t>I1z</t>
+  </si>
+  <si>
+    <t>I2z</t>
+  </si>
+  <si>
+    <t>I3z</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1321,7 @@
   <dimension ref="A1:HE10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="GI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="HD8" sqref="HD8"/>
+      <selection activeCell="HB10" sqref="HB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,22 +1666,22 @@
       <c r="GR3" s="1">
         <v>100</v>
       </c>
-      <c r="GU3" s="1">
+      <c r="GT3" s="1">
         <v>101</v>
       </c>
-      <c r="GW3" s="1">
+      <c r="GV3" s="1">
         <v>102</v>
       </c>
-      <c r="GY3" s="1">
+      <c r="GX3" s="1">
         <v>103</v>
       </c>
-      <c r="HA3" s="1">
+      <c r="GZ3" s="1">
         <v>104</v>
       </c>
-      <c r="HC3" s="1">
+      <c r="HB3" s="1">
         <v>105</v>
       </c>
-      <c r="HE3" s="1">
+      <c r="HD3" s="1">
         <v>106</v>
       </c>
     </row>
@@ -2490,40 +2490,40 @@
         <v>itime100</v>
       </c>
       <c r="GT4" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="GU4" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="GU4" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="GV4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="GW4" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="GW4" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="GX4" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="GY4" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="GY4" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="GZ4" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="HA4" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="HA4" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="HB4" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="HC4" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="HC4" s="4" t="s">
-        <v>244</v>
-      </c>
       <c r="HD4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="HE4" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="HE4" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:213" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
